--- a/Здания Проект/test123.xlsx
+++ b/Здания Проект/test123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Маросейка, ул., 215с1</t>
   </si>
@@ -133,16 +133,48 @@
   </si>
   <si>
     <t>поворот 3</t>
+  </si>
+  <si>
+    <t>Солянка ул, 15</t>
+  </si>
+  <si>
+    <t>улица Солянка, 1.2</t>
+  </si>
+  <si>
+    <t>Покровский бульвар, 8с1</t>
+  </si>
+  <si>
+    <t>Лубянский проезд, 15с2</t>
+  </si>
+  <si>
+    <t>Покровка, ул., 8</t>
+  </si>
+  <si>
+    <t>Покровка, ул., 12</t>
+  </si>
+  <si>
+    <t>Покровка, ул., 2.1с1</t>
+  </si>
+  <si>
+    <t>Подколокольный пер 16.2 с2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -163,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,11 +292,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,6 +397,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,15 +1645,241 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="27"/>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="26">
+        <v>1880</v>
+      </c>
+      <c r="C33" s="32">
+        <v>55.7508499998413</v>
+      </c>
+      <c r="D33" s="32">
+        <v>37.642299652024903</v>
+      </c>
+      <c r="E33" s="28">
+        <v>1</v>
+      </c>
+      <c r="F33" s="33">
+        <v>236</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="33">
+        <v>54</v>
+      </c>
+      <c r="I33" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1814</v>
+      </c>
+      <c r="C34" s="21">
+        <v>55.754106059570702</v>
+      </c>
+      <c r="D34" s="21">
+        <v>37.637899780085</v>
+      </c>
+      <c r="E34" s="27">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35">
+        <v>251</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>324</v>
+      </c>
+      <c r="I34" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1797</v>
+      </c>
+      <c r="C35" s="14">
+        <v>55.757180045366802</v>
+      </c>
+      <c r="D35" s="14">
+        <v>37.6319775389791</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1</v>
+      </c>
+      <c r="F35" s="33">
+        <v>278</v>
+      </c>
+      <c r="G35" s="33">
+        <v>3</v>
+      </c>
+      <c r="H35" s="33">
+        <v>145</v>
+      </c>
+      <c r="I35" s="33">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C36" s="3">
+        <v>55.757276872863798</v>
+      </c>
+      <c r="D36" s="3">
+        <v>37.646578979391002</v>
+      </c>
+      <c r="E36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="35">
+        <v>292</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>60</v>
+      </c>
+      <c r="I36" s="35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1896</v>
+      </c>
+      <c r="C37" s="6">
+        <v>55.758769206364398</v>
+      </c>
+      <c r="D37" s="6">
+        <v>37.6426689147644</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="35">
+        <v>287</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>345</v>
+      </c>
+      <c r="I37" s="35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1880</v>
+      </c>
+      <c r="C38" s="3">
+        <v>55.758998088877199</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37.644580841066997</v>
+      </c>
+      <c r="E38" s="28">
+        <v>1</v>
+      </c>
+      <c r="F38" s="35">
+        <v>288</v>
+      </c>
+      <c r="G38" s="35">
+        <v>0</v>
+      </c>
+      <c r="H38" s="35">
+        <v>351</v>
+      </c>
+      <c r="I38" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C39" s="6">
+        <v>55.758201657246502</v>
+      </c>
+      <c r="D39" s="6">
+        <v>37.639453471307299</v>
+      </c>
+      <c r="E39" s="28">
+        <v>1</v>
+      </c>
+      <c r="F39" s="35">
+        <v>282</v>
+      </c>
+      <c r="G39" s="35">
+        <v>357</v>
+      </c>
+      <c r="H39" s="35">
+        <v>154</v>
+      </c>
+      <c r="I39" s="35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="23">
+        <v>1937</v>
+      </c>
+      <c r="C40" s="1">
+        <v>55.752145295821101</v>
+      </c>
+      <c r="D40" s="1">
+        <v>37.645771789595301</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" s="35">
+        <v>274</v>
+      </c>
+      <c r="G40" s="35">
+        <v>356</v>
+      </c>
+      <c r="H40" s="35">
+        <v>118</v>
+      </c>
+      <c r="I40" s="35">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
